--- a/Data Archive/Mitigation implementations timelines.xlsx
+++ b/Data Archive/Mitigation implementations timelines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Documents/GitHub/CovidPolicy-Canada/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30E2B55-63B6-5942-8303-0DDE1CD1BDE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A792FC1-98D2-B341-86E0-3860F8093EB7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16640" firstSheet="2" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Alberta" sheetId="4" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="1242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="1260">
   <si>
     <t>03/30/2020</t>
   </si>
@@ -11007,6 +11007,62 @@
   </si>
   <si>
     <t>Spring breat (https://www.cbe.ab.ca/registration/calendars/Documents/2021-2022-Modified-Calendar.pdf)</t>
+  </si>
+  <si>
+    <t>06/14/2022</t>
+  </si>
+  <si>
+    <t>All mandatory public health restrictions were lifted on June 14 as the Omicron BA.2 wave subsides and COVID-19 hospitalizations continues to decline.(https://www.alberta.ca/covid-19-public-health-actions.aspx)</t>
+  </si>
+  <si>
+    <t>06/11/2022</t>
+  </si>
+  <si>
+    <t>Remaining masking requirements removed. (https://news.ontario.ca/en/statement/1002160/most-masking-requirements-to-be-lifted-on-june-11)</t>
+  </si>
+  <si>
+    <t>2/28/2022</t>
+  </si>
+  <si>
+    <t>As of February 28 2022, non-medical masks will continue to be required when traveling on Saskatoon Transit vehicles. This applies to all customers, including those who have been vaccinated.(https://transit.saskatoon.ca/rider-guide/covid-19/face-masks#:~:text=As%20of%20February%2028%202022,those%20who%20have%20been%20vaccinated.)</t>
+  </si>
+  <si>
+    <t>06/28/2022</t>
+  </si>
+  <si>
+    <t>Mandatory masking lifted in public transit. (https://saskatoon.ctvnews.ca/saskatoon-transit-to-end-covid-19-mask-requirement-1.5966782)</t>
+  </si>
+  <si>
+    <t>06/18/2022</t>
+  </si>
+  <si>
+    <t>Mandatory masking in public transit is lifted. Masks still mandatory in hospitals, long-term care homes, other health-care facilities. (https://www.cbc.ca/news/canada/montreal/end-of-masking-on-public-transit-1.6493553)</t>
+  </si>
+  <si>
+    <t>07/04/2022</t>
+  </si>
+  <si>
+    <t>Masks are no longer mandatory for health facilities across Nunavut. Masks are also no longer mandatory in Nunavut schools and government workplaces. (https://www.thesafetymag.com/ca/topics/occupational-hygiene/nunavut-lifts-mask-mandate-in-health-facilities-workplaces/412176)</t>
+  </si>
+  <si>
+    <t>07/14/2022</t>
+  </si>
+  <si>
+    <t>Vaccination no longer required for workers, volunteers and contractors working in high-risk settings. Some settings may require you to wear a mask such as in long-term care homes, health facilities, shelters, group homes, the correctional centre and hospitals. (https://yukon.ca/en/news/update-covid-19-yukon). As of july 14. 2022, residents are still required to wear a mask in places such as:
+schools; long-term care homes; health facilities; shelters; group homes; the correctional centre; and hospitals.(xhttps://yukon.ca/en/health-and-wellness/covid-19-information/your-health-covid-19/wearing-non-medical-mask-yukon)</t>
+  </si>
+  <si>
+    <t>07/06/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All remaining Covid-19 restrictions are dropped. Indoor masking will shift to “optional” from strongly recommended unless somebody is ill or the indoor setting is crowded. And people who get the virus will no longer be required to isolate, although it will still be strongly recommended.(https://www.thesafetymag.com/ca/topics/occupational-hygiene/nunavut-lifts-mask-mandate-in-health-facilities-workplaces/412176)
+</t>
+  </si>
+  <si>
+    <t>06/03/2022</t>
+  </si>
+  <si>
+    <t>As of June 3, 2022, masks are still recommended but not longer required in public transit.(https://www.princeedwardisland.ca/en/information/health-and-wellness/wearing-masks-in-the-community-and-workplaces)</t>
   </si>
 </sst>
 </file>
@@ -11230,7 +11286,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="188">
+  <cellXfs count="192">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -11635,6 +11691,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -11653,6 +11716,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -11973,9 +12039,9 @@
   </sheetPr>
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A49" sqref="A49"/>
+    <sheetView zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -12374,7 +12440,13 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="49" spans="3:3" ht="51">
+    <row r="49" spans="1:3" ht="51">
+      <c r="A49" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B49" s="88" t="s">
+        <v>1243</v>
+      </c>
       <c r="C49" s="102" t="s">
         <v>617</v>
       </c>
@@ -12389,10 +12461,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C69"/>
+  <dimension ref="A1:C70"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" zoomScale="107" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView topLeftCell="A66" zoomScale="107" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -12721,16 +12793,16 @@
       </c>
     </row>
     <row r="40" spans="1:2" s="71" customFormat="1" ht="226" customHeight="1">
-      <c r="A40" s="182" t="s">
+      <c r="A40" s="185" t="s">
         <v>813</v>
       </c>
-      <c r="B40" s="184" t="s">
+      <c r="B40" s="187" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="41" spans="1:2" s="71" customFormat="1" ht="232" customHeight="1">
-      <c r="A41" s="183"/>
-      <c r="B41" s="184"/>
+      <c r="A41" s="186"/>
+      <c r="B41" s="187"/>
     </row>
     <row r="42" spans="1:2" ht="34">
       <c r="A42" s="70" t="s">
@@ -12741,28 +12813,28 @@
       </c>
     </row>
     <row r="43" spans="1:2" s="71" customFormat="1" ht="324" customHeight="1">
-      <c r="A43" s="182" t="s">
+      <c r="A43" s="185" t="s">
         <v>121</v>
       </c>
-      <c r="B43" s="184" t="s">
+      <c r="B43" s="187" t="s">
         <v>819</v>
       </c>
     </row>
     <row r="44" spans="1:2" s="71" customFormat="1" ht="134" customHeight="1">
-      <c r="A44" s="183"/>
-      <c r="B44" s="184"/>
+      <c r="A44" s="186"/>
+      <c r="B44" s="187"/>
     </row>
     <row r="45" spans="1:2" s="71" customFormat="1" ht="186" customHeight="1">
-      <c r="A45" s="180" t="s">
+      <c r="A45" s="183" t="s">
         <v>448</v>
       </c>
-      <c r="B45" s="184" t="s">
+      <c r="B45" s="187" t="s">
         <v>820</v>
       </c>
     </row>
     <row r="46" spans="1:2" s="71" customFormat="1" ht="284" customHeight="1">
-      <c r="A46" s="185"/>
-      <c r="B46" s="184"/>
+      <c r="A46" s="188"/>
+      <c r="B46" s="187"/>
     </row>
     <row r="47" spans="1:2" ht="17">
       <c r="A47" s="70" t="s">
@@ -12789,28 +12861,28 @@
       </c>
     </row>
     <row r="50" spans="1:2" s="71" customFormat="1" ht="212" customHeight="1">
-      <c r="A50" s="182" t="s">
+      <c r="A50" s="185" t="s">
         <v>824</v>
       </c>
-      <c r="B50" s="184" t="s">
+      <c r="B50" s="187" t="s">
         <v>940</v>
       </c>
     </row>
     <row r="51" spans="1:2" s="71" customFormat="1" ht="224" customHeight="1">
-      <c r="A51" s="183"/>
-      <c r="B51" s="184"/>
+      <c r="A51" s="186"/>
+      <c r="B51" s="187"/>
     </row>
     <row r="52" spans="1:2" s="71" customFormat="1" ht="232" customHeight="1">
-      <c r="A52" s="182" t="s">
+      <c r="A52" s="185" t="s">
         <v>825</v>
       </c>
-      <c r="B52" s="184" t="s">
+      <c r="B52" s="187" t="s">
         <v>939</v>
       </c>
     </row>
     <row r="53" spans="1:2" s="71" customFormat="1" ht="242" customHeight="1">
-      <c r="A53" s="183"/>
-      <c r="B53" s="184"/>
+      <c r="A53" s="186"/>
+      <c r="B53" s="187"/>
     </row>
     <row r="54" spans="1:2" ht="34">
       <c r="A54" s="70" t="s">
@@ -12938,6 +13010,14 @@
       </c>
       <c r="B69" s="169" t="s">
         <v>1227</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="51">
+      <c r="A70" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B70" s="181" t="s">
+        <v>1257</v>
       </c>
     </row>
   </sheetData>
@@ -12964,7 +13044,7 @@
   </sheetPr>
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
@@ -13409,7 +13489,7 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -13735,10 +13815,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -14029,6 +14109,14 @@
       </c>
       <c r="B35" s="169" t="s">
         <v>1230</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="34">
+      <c r="A36" s="1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B36" s="181" t="s">
+        <v>1259</v>
       </c>
     </row>
   </sheetData>
@@ -14172,24 +14260,24 @@
       </c>
     </row>
     <row r="14" spans="1:15" s="64" customFormat="1" ht="81" customHeight="1">
-      <c r="A14" s="186" t="s">
+      <c r="A14" s="189" t="s">
         <v>255</v>
       </c>
-      <c r="B14" s="184" t="s">
+      <c r="B14" s="187" t="s">
         <v>727</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="64" customFormat="1" ht="71" customHeight="1">
-      <c r="A15" s="187"/>
-      <c r="B15" s="184"/>
+      <c r="A15" s="190"/>
+      <c r="B15" s="187"/>
     </row>
     <row r="16" spans="1:15" s="64" customFormat="1" ht="95" customHeight="1">
-      <c r="A16" s="187"/>
-      <c r="B16" s="184"/>
+      <c r="A16" s="190"/>
+      <c r="B16" s="187"/>
     </row>
     <row r="17" spans="1:2" s="64" customFormat="1" ht="192" customHeight="1">
-      <c r="A17" s="187"/>
-      <c r="B17" s="184"/>
+      <c r="A17" s="190"/>
+      <c r="B17" s="187"/>
     </row>
     <row r="18" spans="1:2" s="64" customFormat="1" ht="192" customHeight="1">
       <c r="A18" s="69" t="s">
@@ -14687,8 +14775,8 @@
   <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView zoomScale="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B51" sqref="B51"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -15197,11 +15285,11 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -15694,6 +15782,14 @@
         <v>1175</v>
       </c>
     </row>
+    <row r="59" spans="1:2" ht="17">
+      <c r="A59" s="6" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B59" s="181" t="s">
+        <v>1245</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C40" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15705,11 +15801,11 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -16060,20 +16156,37 @@
       </c>
       <c r="C41" s="175"/>
     </row>
-    <row r="42" spans="1:3" ht="41" customHeight="1">
+    <row r="42" spans="1:3" s="180" customFormat="1" ht="51">
       <c r="A42" s="6" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C42" s="181"/>
+    </row>
+    <row r="43" spans="1:3" ht="41" customHeight="1">
+      <c r="A43" s="6" t="s">
         <v>1170</v>
       </c>
-      <c r="B42" s="46" t="s">
+      <c r="B43" s="46" t="s">
         <v>1232</v>
       </c>
-      <c r="C42" s="90" t="s">
+      <c r="C43" s="90" t="s">
         <v>227</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="17">
+      <c r="A44" s="6" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B44" s="191" t="s">
+        <v>1249</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B42" r:id="rId1" display="https://globalnews.ca/tag/saskatchewan-schools/" xr:uid="{8E8EA5DC-B0DA-0741-95A7-6437D0DA5D1F}"/>
+    <hyperlink ref="B43" r:id="rId1" display="https://globalnews.ca/tag/saskatchewan-schools/" xr:uid="{8E8EA5DC-B0DA-0741-95A7-6437D0DA5D1F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16084,11 +16197,11 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C124"/>
+  <dimension ref="A1:C125"/>
   <sheetViews>
     <sheetView zoomScale="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B125" sqref="B125"/>
+      <selection pane="bottomLeft" activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -17143,6 +17256,14 @@
       </c>
       <c r="B124" s="167" t="s">
         <v>1218</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="34">
+      <c r="A125" s="6" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B125" s="181" t="s">
+        <v>1251</v>
       </c>
     </row>
   </sheetData>
@@ -17164,7 +17285,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
+      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -17555,10 +17676,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -17843,20 +17964,20 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="408" customHeight="1">
-      <c r="A34" s="180" t="s">
+      <c r="A34" s="183" t="s">
         <v>269</v>
       </c>
-      <c r="B34" s="179" t="s">
+      <c r="B34" s="182" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="206" customHeight="1">
-      <c r="A35" s="180"/>
-      <c r="B35" s="179"/>
+      <c r="A35" s="183"/>
+      <c r="B35" s="182"/>
     </row>
     <row r="36" spans="1:3" s="43" customFormat="1" ht="138" customHeight="1">
-      <c r="A36" s="181"/>
-      <c r="B36" s="179"/>
+      <c r="A36" s="184"/>
+      <c r="B36" s="182"/>
     </row>
     <row r="37" spans="1:3" s="43" customFormat="1" ht="51">
       <c r="A37" s="1" t="s">
@@ -17973,16 +18094,16 @@
       </c>
     </row>
     <row r="50" spans="1:2" s="86" customFormat="1" ht="229" customHeight="1">
-      <c r="A50" s="182" t="s">
+      <c r="A50" s="185" t="s">
         <v>903</v>
       </c>
-      <c r="B50" s="179" t="s">
+      <c r="B50" s="182" t="s">
         <v>904</v>
       </c>
     </row>
     <row r="51" spans="1:2" s="86" customFormat="1" ht="181" customHeight="1">
-      <c r="A51" s="183"/>
-      <c r="B51" s="179"/>
+      <c r="A51" s="186"/>
+      <c r="B51" s="182"/>
     </row>
     <row r="52" spans="1:2" ht="17">
       <c r="A52" s="103" t="s">
@@ -18078,6 +18199,14 @@
       </c>
       <c r="B63" s="168" t="s">
         <v>1219</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="34">
+      <c r="A64" s="103" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B64" s="179" t="s">
+        <v>1253</v>
       </c>
     </row>
   </sheetData>
@@ -18098,9 +18227,9 @@
   </sheetPr>
   <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B65" sqref="B65"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -18799,10 +18928,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -19094,6 +19223,14 @@
         <v>1237</v>
       </c>
     </row>
+    <row r="36" spans="1:2" ht="119">
+      <c r="A36" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B36" s="181" t="s">
+        <v>1255</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data Archive/Mitigation implementations timelines.xlsx
+++ b/Data Archive/Mitigation implementations timelines.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Documents/GitHub/CovidPolicy-Canada/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Documents/GitHub/CovidPolicy-Canada/Data Archive/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A792FC1-98D2-B341-86E0-3860F8093EB7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3FF6DF1-5852-6A49-A123-B62EB2E4A149}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16640" firstSheet="2" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1060" yWindow="460" windowWidth="28800" windowHeight="16600" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Alberta" sheetId="4" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="1260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="1261">
   <si>
     <t>03/30/2020</t>
   </si>
@@ -10428,9 +10428,6 @@
     <t>03/14/2022</t>
   </si>
   <si>
-    <t>All public health restrictions are lifted. masking will no longer be required in public spaces. Capacity limits and physical distancing will end, and those who test positive for COVID-19 will no longer be required to isolate. (https://globalnews.ca/news/8643046/nb-covid-19-update-feb-24-2022/)</t>
-  </si>
-  <si>
     <t>Vaccination policy to access non-essential services is lifted. (https://globalnews.ca/news/8643046/nb-covid-19-update-feb-24-2022/)</t>
   </si>
   <si>
@@ -10884,9 +10881,6 @@
     <t>the end to the current requirement to show proof of full vaccination before participating in non-essential, discretionary events and activities. Other restrictions continue. (https://novascotia.ca/news/release/?id=20220223008)</t>
   </si>
   <si>
-    <t>residents are no longer required to wear masks in public places or limit the size of gatherings. All businesses and organizations can operate at full capacity and without the requirement for physical distancing. (https://www.thestar.com/news/canada/2022/03/14/covid-19-restrictions-end-in-new-brunswick-and-newfoundland-and-labrador.html) masks will still be required in K-12 schools until at least the beginning of Easter break on April 14. A further announcement on masking. (https://www.cbc.ca/news/canada/newfoundland-labrador/nl-covid-restrictions-end-masks-remain-1.6382888) proof of vaccination to enter public venues no longer required (https://atlantic.ctvnews.ca/newfoundland-and-labrador-dropping-masking-vaccination-passport-measures-march-14-1.5784179)</t>
-  </si>
-  <si>
     <t>05/06/2022</t>
   </si>
   <si>
@@ -10953,11 +10947,6 @@
     <t>Mask mandate is lifted in public and private schools and in early childcare centers. The use of mask is still recommended. (https://atlantic.ctvnews.ca/mask-mandates-end-in-all-atlantic-canadian-schools-but-health-officials-still-recommend-their-use-1.5916436). Masks are still required in high risk environments such as hospitals, long-term care homes and public transit. (https://www.princeedwardisland.ca/en/information/health-and-wellness/step-3-covid-19-public-health-guidance)</t>
   </si>
   <si>
-    <t>Mask mandate lifted accept for long-term care homes. Schools and child-care facilities also wont require staff and students to wear masks. public health orders restricting travel to northern Manitoba ends; 
-individual case investigations related to COVID-19 will no longer occur and Manitoba will no longer generate key codes for the federal COVID Alert app; and
-public health will no longer require people who test positive for COVID-19 to isolate. (https://news.gov.mb.ca/news/index.html?item=53777)</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -10986,90 +10975,131 @@
   </si>
   <si>
     <t>2/18/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vaccine mandate is fully lifted but it will continue to be required for employees, contractors and volunteers working in high-risk settings in the Yukon.
+High-risk settings include: long-term care homes; residential substance use programs; hospitals; shelters; residential care for children and adults; correctional centres; Yukon government-operated community health centres; and Yukon government-operated public health clinics, including the referred care clinic. (https://yukon.ca/en/news/vaccination-requirement-continues-workers-high-risk-settings-yukon) (https://yukon.ca/en/news/vaccination-requirement-lifted-most-workers) </t>
+  </si>
+  <si>
+    <t>01/10/2022</t>
+  </si>
+  <si>
+    <t>Schools reopen with restrictions in place.(https://rdnewsnow.com/2021/12/30/winter-break-extended-to-january-10-for-albertas-k-12-students/#:~:text=Winter%20break%20has%20been%20extended,10%2C%202022.) (https://www.todocanada.ca/alberta-schools-to-reopen-on-january-10th-after-winter-break-cancels-january-high-school-diploma-exam/)</t>
+  </si>
+  <si>
+    <t>Spring break. (https://www.cbe.ab.ca/registration/calendars/Documents/2020-2021-Traditional-Calendar.pdf)</t>
+  </si>
+  <si>
+    <t>Spring breat (https://www.cbe.ab.ca/registration/calendars/Documents/2021-2022-Modified-Calendar.pdf)</t>
+  </si>
+  <si>
+    <t>06/14/2022</t>
+  </si>
+  <si>
+    <t>06/11/2022</t>
+  </si>
+  <si>
+    <t>2/28/2022</t>
+  </si>
+  <si>
+    <t>06/28/2022</t>
+  </si>
+  <si>
+    <t>Mandatory masking lifted in public transit. (https://saskatoon.ctvnews.ca/saskatoon-transit-to-end-covid-19-mask-requirement-1.5966782)</t>
+  </si>
+  <si>
+    <t>06/18/2022</t>
+  </si>
+  <si>
+    <t>07/04/2022</t>
+  </si>
+  <si>
+    <t>Masks are no longer mandatory for health facilities across Nunavut. Masks are also no longer mandatory in Nunavut schools and government workplaces. (https://www.thesafetymag.com/ca/topics/occupational-hygiene/nunavut-lifts-mask-mandate-in-health-facilities-workplaces/412176)</t>
+  </si>
+  <si>
+    <t>07/14/2022</t>
+  </si>
+  <si>
+    <t>Vaccination no longer required for workers, volunteers and contractors working in high-risk settings. Some settings may require you to wear a mask such as in long-term care homes, health facilities, shelters, group homes, the correctional centre and hospitals. (https://yukon.ca/en/news/update-covid-19-yukon). As of july 14. 2022, residents are still required to wear a mask in places such as:
+schools; long-term care homes; health facilities; shelters; group homes; the correctional centre; and hospitals.(xhttps://yukon.ca/en/health-and-wellness/covid-19-information/your-health-covid-19/wearing-non-medical-mask-yukon)</t>
+  </si>
+  <si>
+    <t>07/06/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All remaining Covid-19 restrictions are dropped. Indoor masking will shift to “optional” from strongly recommended unless somebody is ill or the indoor setting is crowded. And people who get the virus will no longer be required to isolate, although it will still be strongly recommended.(https://www.thesafetymag.com/ca/topics/occupational-hygiene/nunavut-lifts-mask-mandate-in-health-facilities-workplaces/412176)
+</t>
+  </si>
+  <si>
+    <t>06/03/2022</t>
+  </si>
+  <si>
+    <t>As of June 3, 2022, masks are still recommended but not longer required in public transit.(https://www.princeedwardisland.ca/en/information/health-and-wellness/wearing-masks-in-the-community-and-workplaces)</t>
+  </si>
+  <si>
+    <t>residents are no longer required to wear masks in public places or limit the size of gatherings. All businesses and organizations can operate at full capacity and without the requirement for physical distancing. (https://www.thestar.com/news/canada/2022/03/14/covid-19-restrictions-end-in-new-brunswick-and-newfoundland-and-labrador.html) masks will still be required in K-12 schools until at least the beginning of Easter break on April 14. A further announcement on masking. (https://www.cbc.ca/news/canada/newfoundland-labrador/nl-covid-restrictions-end-masks-remain-1.6382888) proof of vaccination to enter public venues no longer required (https://atlantic.ctvnews.ca/newfoundland-and-labrador-dropping-masking-vaccination-passport-measures-march-14-1.5784179). Effective March 14, 2022, wearing a non-medical mask that covers the nose and mouth is not mandatory, but strongly recommended for people 5 years or older, with some exceptions. (https://www.gov.nl.ca/covid-19/public-health-guidance/guidance/masks/#:~:text=Requirements,some%20exceptions%20(see%20below).</t>
+  </si>
+  <si>
+    <t>All public health restrictions are lifted. masking will no longer be required in public spaces. Capacity limits and physical distancing will end, and those who test positive for COVID-19 will no longer be required to isolate. Dr. Jennifer Russell said that public health also recommends that all residents, staff and visitors to these facilities[ high risk facilities] continue to wear masks. (https://globalnews.ca/news/8643046/nb-covid-19-update-feb-24-2022/).</t>
+  </si>
+  <si>
+    <t>Remaining masking requirements removed. To continue providing an additional layer of protection for the most vulnerable, masks will still be required in long-term care and retirement homes. Masking is recommended in higher-risk congregate living settings, such as shelters and group homes. (https://news.ontario.ca/en/statement/1002160/most-masking-requirements-to-be-lifted-on-june-11)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As of February 28 2022, non-medical masks will continue to be required when traveling on Saskatoon Transit vehicles. This applies to all customers, including those who have been vaccinated.(https://transit.saskatoon.ca/rider-guide/covid-19/face-masks#:~:text=As%20of%20February%2028%202022,those%20who%20have%20been%20vaccinated.). </t>
   </si>
   <si>
     <t>The public health order requiring mandatory indoor masking and self-isolation for anyone who tests positive for COVID-19 through a PCR or at-home rapid antigen test is no longer in effect as of 12:01 a.m. February 28.Public Health still strongly recommends immediate self-isolation for anyone who tests positive for COVID-19.
 Businesses, workplaces and event organizers may request that patrons/visitors/staff/students continue to mask. Masking will not be mandatory. (https://www.saskatchewan.ca/government/health-care-administration-and-provider-resources/treatment-procedures-and-guidelines/emerging-public-health-issues/2019-novel-coronavirus/public-health-measures). As of February 28 2022, non-medical masks  will continue to be required when traveling on Saskatoon Transit vehicles. 
-This applies to all customers, including those who have been vaccinated. (https://transit.saskatoon.ca/rider-guide/covid-19/face-masks)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vaccine mandate is fully lifted but it will continue to be required for employees, contractors and volunteers working in high-risk settings in the Yukon.
-High-risk settings include: long-term care homes; residential substance use programs; hospitals; shelters; residential care for children and adults; correctional centres; Yukon government-operated community health centres; and Yukon government-operated public health clinics, including the referred care clinic. (https://yukon.ca/en/news/vaccination-requirement-continues-workers-high-risk-settings-yukon) (https://yukon.ca/en/news/vaccination-requirement-lifted-most-workers) </t>
-  </si>
-  <si>
-    <t>01/10/2022</t>
-  </si>
-  <si>
-    <t>Schools reopen with restrictions in place.(https://rdnewsnow.com/2021/12/30/winter-break-extended-to-january-10-for-albertas-k-12-students/#:~:text=Winter%20break%20has%20been%20extended,10%2C%202022.) (https://www.todocanada.ca/alberta-schools-to-reopen-on-january-10th-after-winter-break-cancels-january-high-school-diploma-exam/)</t>
-  </si>
-  <si>
-    <t>Spring break. (https://www.cbe.ab.ca/registration/calendars/Documents/2020-2021-Traditional-Calendar.pdf)</t>
-  </si>
-  <si>
-    <t>Spring breat (https://www.cbe.ab.ca/registration/calendars/Documents/2021-2022-Modified-Calendar.pdf)</t>
-  </si>
-  <si>
-    <t>06/14/2022</t>
-  </si>
-  <si>
-    <t>All mandatory public health restrictions were lifted on June 14 as the Omicron BA.2 wave subsides and COVID-19 hospitalizations continues to decline.(https://www.alberta.ca/covid-19-public-health-actions.aspx)</t>
-  </si>
-  <si>
-    <t>06/11/2022</t>
-  </si>
-  <si>
-    <t>Remaining masking requirements removed. (https://news.ontario.ca/en/statement/1002160/most-masking-requirements-to-be-lifted-on-june-11)</t>
-  </si>
-  <si>
-    <t>2/28/2022</t>
-  </si>
-  <si>
-    <t>As of February 28 2022, non-medical masks will continue to be required when traveling on Saskatoon Transit vehicles. This applies to all customers, including those who have been vaccinated.(https://transit.saskatoon.ca/rider-guide/covid-19/face-masks#:~:text=As%20of%20February%2028%202022,those%20who%20have%20been%20vaccinated.)</t>
-  </si>
-  <si>
-    <t>06/28/2022</t>
-  </si>
-  <si>
-    <t>Mandatory masking lifted in public transit. (https://saskatoon.ctvnews.ca/saskatoon-transit-to-end-covid-19-mask-requirement-1.5966782)</t>
-  </si>
-  <si>
-    <t>06/18/2022</t>
-  </si>
-  <si>
-    <t>Mandatory masking in public transit is lifted. Masks still mandatory in hospitals, long-term care homes, other health-care facilities. (https://www.cbc.ca/news/canada/montreal/end-of-masking-on-public-transit-1.6493553)</t>
-  </si>
-  <si>
-    <t>07/04/2022</t>
-  </si>
-  <si>
-    <t>Masks are no longer mandatory for health facilities across Nunavut. Masks are also no longer mandatory in Nunavut schools and government workplaces. (https://www.thesafetymag.com/ca/topics/occupational-hygiene/nunavut-lifts-mask-mandate-in-health-facilities-workplaces/412176)</t>
-  </si>
-  <si>
-    <t>07/14/2022</t>
-  </si>
-  <si>
-    <t>Vaccination no longer required for workers, volunteers and contractors working in high-risk settings. Some settings may require you to wear a mask such as in long-term care homes, health facilities, shelters, group homes, the correctional centre and hospitals. (https://yukon.ca/en/news/update-covid-19-yukon). As of july 14. 2022, residents are still required to wear a mask in places such as:
-schools; long-term care homes; health facilities; shelters; group homes; the correctional centre; and hospitals.(xhttps://yukon.ca/en/health-and-wellness/covid-19-information/your-health-covid-19/wearing-non-medical-mask-yukon)</t>
-  </si>
-  <si>
-    <t>07/06/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All remaining Covid-19 restrictions are dropped. Indoor masking will shift to “optional” from strongly recommended unless somebody is ill or the indoor setting is crowded. And people who get the virus will no longer be required to isolate, although it will still be strongly recommended.(https://www.thesafetymag.com/ca/topics/occupational-hygiene/nunavut-lifts-mask-mandate-in-health-facilities-workplaces/412176)
-</t>
-  </si>
-  <si>
-    <t>06/03/2022</t>
-  </si>
-  <si>
-    <t>As of June 3, 2022, masks are still recommended but not longer required in public transit.(https://www.princeedwardisland.ca/en/information/health-and-wellness/wearing-masks-in-the-community-and-workplaces)</t>
+This applies to all customers, including those who have been vaccinated. (https://transit.saskatoon.ca/rider-guide/covid-19/face-masks). People should assess their own risk and make their own choices in terms of wearing a mask.Medical masks are recommended for:
+anyone who has tested positive for or has symptoms of COVID-19
+people caring for someone who has tested positive or has symptoms of COVID-19
+people who live in an overcrowded setting with someone who has tested positive or has symptoms of COVID-19
+people who are at risk of more severe disease or outcomes from COVID-19
+people who are at higher risk of exposure to COVID-19 because of their living situation. (https://www.saskatchewan.ca/government/health-care-administration-and-provider-resources/treatment-procedures-and-guidelines/emerging-public-health-issues/2019-novel-coronavirus/about-covid-19/how-to-protect-yourself#:~:text=Cloth%20masks%20with%20at%20least,ineffective%20at%20blocking%20respiratory%20droplets.)</t>
+  </si>
+  <si>
+    <t>Mandatory masking in public transit is lifted. Masks still mandatory in hospitals, long-term care homes, other health-care facilities.  The Health Ministry specified that masks are still recommended in certain situations, such as when you're around vulnerable people, such as the immunocompromised, the elderly and those at risk of complications. (https://www.cbc.ca/news/canada/montreal/end-of-masking-on-public-transit-1.6493553)</t>
+  </si>
+  <si>
+    <t>Mask mandate lifted except for long-term care homes. Schools and child-care facilities also wont require staff and students to wear masks. public health orders restricting travel to northern Manitoba ends; 
+individual case investigations related to COVID-19 will no longer occur and Manitoba will no longer generate key codes for the federal COVID Alert app; and
+public health will no longer require people who test positive for COVID-19 to isolate. (https://news.gov.mb.ca/news/index.html?item=53777). Masks are recommended for individuals at higher risk of severe illness, particularly if they are in a crowded indoor setting, or for everyone in a setting where there are many people who are at higher risk for severe disease. For example, healthcare facilities and personal care homes may continue to require mask use.
+Individuals who are sick or have tested positive for COVID-19 should wear a mask if they need to leave their home or have contact with others for 10 days after their symptoms started or if they have no symptoms, 10 days after the date of the positive test.
+Individuals caring for someone who is sick or has tested positive for COVID-19 should wear a mask.(https://www.gov.mb.ca/covid19/resources/masks.html#:~:text=Masks%20are%20no%20longer%20required,made%2C%20well%2Dfitting%20mask.). When not a requirement, mask use is still recommended to reduce the spread of the virus.(https://www.gov.mb.ca/covid19/fundamentals/focus-on-the-fundamentals.html)</t>
+  </si>
+  <si>
+    <t>All mandatory public health restrictions were lifted on June 14 as the Omicron BA.2 wave subsides and COVID-19 hospitalizations continues to decline.(https://www.alberta.ca/covid-19-public-health-actions.aspx).People at risk of severe outcomes should wear medical masks when in settings with people outside of their household.(https://www.alberta.ca/covid-19-public-health-actions.aspx)</t>
+  </si>
+  <si>
+    <r>
+      <t>While masks are no longer mandatory in public spaces, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF202124"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">they are still recommended for any individual who is feeling unwell and who is unable to stay home. Masks are still encouraged for all to help reduce the risk of transmission of COVID-19 and other illnesses. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(https://www.thesafetymag.com/ca/topics/occupational-hygiene/nunavut-lifts-mask-mandate-in-health-facilities-workplaces/412176#:~:text=%E2%80%9CWhile%20masks%20are%20no%20longer,said%20Nunavut%20Premier%20P.J.%20Akeeagok.)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -11258,6 +11288,11 @@
       <color theme="1"/>
       <name val="Calibri (Body)_x0000_"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF202124"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -11286,7 +11321,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="192">
+  <cellXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -11698,6 +11733,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -11716,9 +11757,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -12039,7 +12077,7 @@
   </sheetPr>
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="107" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B50" sqref="B50"/>
     </sheetView>
@@ -12283,7 +12321,7 @@
         <v>205</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="136">
@@ -12410,10 +12448,10 @@
     </row>
     <row r="45" spans="1:3" s="156" customFormat="1" ht="187">
       <c r="A45" s="1" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B45" s="88" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="46" spans="1:3" s="156" customFormat="1" ht="34">
@@ -12421,31 +12459,31 @@
         <v>1106</v>
       </c>
       <c r="B46" s="88" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="47" spans="1:3" s="156" customFormat="1" ht="204">
       <c r="A47" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B47" s="88" t="s">
         <v>1170</v>
-      </c>
-      <c r="B47" s="88" t="s">
-        <v>1171</v>
       </c>
     </row>
     <row r="48" spans="1:3" s="162" customFormat="1" ht="17">
       <c r="A48" s="1" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B48" s="88" t="s">
-        <v>1241</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="51">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="68">
       <c r="A49" s="1" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="B49" s="88" t="s">
-        <v>1243</v>
+        <v>1259</v>
       </c>
       <c r="C49" s="102" t="s">
         <v>617</v>
@@ -12463,8 +12501,8 @@
   </sheetPr>
   <dimension ref="A1:C70"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" zoomScale="107" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView topLeftCell="D66" zoomScale="107" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -12793,16 +12831,16 @@
       </c>
     </row>
     <row r="40" spans="1:2" s="71" customFormat="1" ht="226" customHeight="1">
-      <c r="A40" s="185" t="s">
+      <c r="A40" s="187" t="s">
         <v>813</v>
       </c>
-      <c r="B40" s="187" t="s">
+      <c r="B40" s="189" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="41" spans="1:2" s="71" customFormat="1" ht="232" customHeight="1">
-      <c r="A41" s="186"/>
-      <c r="B41" s="187"/>
+      <c r="A41" s="188"/>
+      <c r="B41" s="189"/>
     </row>
     <row r="42" spans="1:2" ht="34">
       <c r="A42" s="70" t="s">
@@ -12813,28 +12851,28 @@
       </c>
     </row>
     <row r="43" spans="1:2" s="71" customFormat="1" ht="324" customHeight="1">
-      <c r="A43" s="185" t="s">
+      <c r="A43" s="187" t="s">
         <v>121</v>
       </c>
-      <c r="B43" s="187" t="s">
+      <c r="B43" s="189" t="s">
         <v>819</v>
       </c>
     </row>
     <row r="44" spans="1:2" s="71" customFormat="1" ht="134" customHeight="1">
-      <c r="A44" s="186"/>
-      <c r="B44" s="187"/>
+      <c r="A44" s="188"/>
+      <c r="B44" s="189"/>
     </row>
     <row r="45" spans="1:2" s="71" customFormat="1" ht="186" customHeight="1">
-      <c r="A45" s="183" t="s">
+      <c r="A45" s="185" t="s">
         <v>448</v>
       </c>
-      <c r="B45" s="187" t="s">
+      <c r="B45" s="189" t="s">
         <v>820</v>
       </c>
     </row>
     <row r="46" spans="1:2" s="71" customFormat="1" ht="284" customHeight="1">
-      <c r="A46" s="188"/>
-      <c r="B46" s="187"/>
+      <c r="A46" s="190"/>
+      <c r="B46" s="189"/>
     </row>
     <row r="47" spans="1:2" ht="17">
       <c r="A47" s="70" t="s">
@@ -12861,28 +12899,28 @@
       </c>
     </row>
     <row r="50" spans="1:2" s="71" customFormat="1" ht="212" customHeight="1">
-      <c r="A50" s="185" t="s">
+      <c r="A50" s="187" t="s">
         <v>824</v>
       </c>
-      <c r="B50" s="187" t="s">
+      <c r="B50" s="189" t="s">
         <v>940</v>
       </c>
     </row>
     <row r="51" spans="1:2" s="71" customFormat="1" ht="224" customHeight="1">
-      <c r="A51" s="186"/>
-      <c r="B51" s="187"/>
+      <c r="A51" s="188"/>
+      <c r="B51" s="189"/>
     </row>
     <row r="52" spans="1:2" s="71" customFormat="1" ht="232" customHeight="1">
-      <c r="A52" s="185" t="s">
+      <c r="A52" s="187" t="s">
         <v>825</v>
       </c>
-      <c r="B52" s="187" t="s">
+      <c r="B52" s="189" t="s">
         <v>939</v>
       </c>
     </row>
     <row r="53" spans="1:2" s="71" customFormat="1" ht="242" customHeight="1">
-      <c r="A53" s="186"/>
-      <c r="B53" s="187"/>
+      <c r="A53" s="188"/>
+      <c r="B53" s="189"/>
     </row>
     <row r="54" spans="1:2" ht="34">
       <c r="A54" s="70" t="s">
@@ -12977,47 +13015,47 @@
         <v>1121</v>
       </c>
       <c r="B65" s="166" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="170">
       <c r="A66" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B66" s="166" t="s">
         <v>1210</v>
-      </c>
-      <c r="B66" s="166" t="s">
-        <v>1211</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="119">
       <c r="A67" s="1" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B67" s="166" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="51">
       <c r="A68" s="1" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="B68" s="169" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="34">
       <c r="A69" s="1" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="B69" s="169" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="51">
       <c r="A70" s="1" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="B70" s="181" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
   </sheetData>
@@ -13045,7 +13083,7 @@
   <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -13379,18 +13417,18 @@
     </row>
     <row r="37" spans="1:2" s="141" customFormat="1" ht="68">
       <c r="A37" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B37" s="142" t="s">
         <v>1140</v>
-      </c>
-      <c r="B37" s="142" t="s">
-        <v>1141</v>
       </c>
     </row>
     <row r="38" spans="1:2" s="141" customFormat="1" ht="68">
       <c r="A38" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B38" s="142" t="s">
         <v>1138</v>
-      </c>
-      <c r="B38" s="142" t="s">
-        <v>1139</v>
       </c>
     </row>
     <row r="39" spans="1:2" s="141" customFormat="1" ht="119">
@@ -13398,7 +13436,7 @@
         <v>1037</v>
       </c>
       <c r="B39" s="142" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="255">
@@ -13406,15 +13444,15 @@
         <v>1051</v>
       </c>
       <c r="B40" s="142" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="41" spans="1:2" s="141" customFormat="1" ht="221">
       <c r="A41" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B41" s="142" t="s">
         <v>1134</v>
-      </c>
-      <c r="B41" s="142" t="s">
-        <v>1135</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="34">
@@ -13427,18 +13465,18 @@
     </row>
     <row r="43" spans="1:2" s="141" customFormat="1" ht="306">
       <c r="A43" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B43" s="142" t="s">
         <v>1132</v>
-      </c>
-      <c r="B43" s="142" t="s">
-        <v>1133</v>
       </c>
     </row>
     <row r="44" spans="1:2" s="141" customFormat="1" ht="119">
       <c r="A44" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B44" s="142" t="s">
         <v>1130</v>
-      </c>
-      <c r="B44" s="142" t="s">
-        <v>1131</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="17">
@@ -13462,15 +13500,15 @@
         <v>1121</v>
       </c>
       <c r="B47" s="142" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="34">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="51">
       <c r="A48" s="1" t="s">
         <v>1127</v>
       </c>
       <c r="B48" s="142" t="s">
-        <v>1128</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="49" spans="2:2">
@@ -13488,8 +13526,8 @@
   </sheetPr>
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView topLeftCell="A34" zoomScale="117" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -13789,20 +13827,20 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="102">
+    <row r="37" spans="1:2" ht="153">
       <c r="A37" t="s">
         <v>1127</v>
       </c>
       <c r="B37" s="166" t="s">
-        <v>1213</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="51">
       <c r="A38" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B38" s="169" t="s">
         <v>1226</v>
-      </c>
-      <c r="B38" s="169" t="s">
-        <v>1228</v>
       </c>
     </row>
   </sheetData>
@@ -13818,7 +13856,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -14028,7 +14066,7 @@
         <v>1053</v>
       </c>
       <c r="B25" s="144" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="26" spans="1:2" s="143" customFormat="1" ht="34">
@@ -14036,7 +14074,7 @@
         <v>1117</v>
       </c>
       <c r="B26" s="144" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="27" spans="1:2" s="143" customFormat="1" ht="34">
@@ -14044,7 +14082,7 @@
         <v>1072</v>
       </c>
       <c r="B27" s="144" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="28" spans="1:2" s="143" customFormat="1" ht="272">
@@ -14052,7 +14090,7 @@
         <v>1079</v>
       </c>
       <c r="B28" s="144" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="29" spans="1:2" s="143" customFormat="1" ht="255">
@@ -14060,15 +14098,15 @@
         <v>1084</v>
       </c>
       <c r="B29" s="144" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="136">
       <c r="A30" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B30" s="144" t="s">
         <v>1142</v>
-      </c>
-      <c r="B30" s="144" t="s">
-        <v>1143</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="68">
@@ -14076,47 +14114,47 @@
         <v>1121</v>
       </c>
       <c r="B31" s="144" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="153">
       <c r="A32" s="1" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="B32" s="166" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="33" spans="1:2" s="170" customFormat="1" ht="34">
       <c r="A33" s="1" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="B33" s="171" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="85">
       <c r="A34" s="1" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="B34" s="166" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="68">
       <c r="A35" s="1" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="B35" s="169" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="34">
       <c r="A36" s="1" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="B36" s="181" t="s">
-        <v>1259</v>
+        <v>1251</v>
       </c>
     </row>
   </sheetData>
@@ -14260,24 +14298,24 @@
       </c>
     </row>
     <row r="14" spans="1:15" s="64" customFormat="1" ht="81" customHeight="1">
-      <c r="A14" s="189" t="s">
+      <c r="A14" s="191" t="s">
         <v>255</v>
       </c>
-      <c r="B14" s="187" t="s">
+      <c r="B14" s="189" t="s">
         <v>727</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="64" customFormat="1" ht="71" customHeight="1">
-      <c r="A15" s="190"/>
-      <c r="B15" s="187"/>
+      <c r="A15" s="192"/>
+      <c r="B15" s="189"/>
     </row>
     <row r="16" spans="1:15" s="64" customFormat="1" ht="95" customHeight="1">
-      <c r="A16" s="190"/>
-      <c r="B16" s="187"/>
+      <c r="A16" s="192"/>
+      <c r="B16" s="189"/>
     </row>
     <row r="17" spans="1:2" s="64" customFormat="1" ht="192" customHeight="1">
-      <c r="A17" s="190"/>
-      <c r="B17" s="187"/>
+      <c r="A17" s="192"/>
+      <c r="B17" s="189"/>
     </row>
     <row r="18" spans="1:2" s="64" customFormat="1" ht="192" customHeight="1">
       <c r="A18" s="69" t="s">
@@ -14776,7 +14814,7 @@
   <sheetViews>
     <sheetView zoomScale="98" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B55" sqref="B55"/>
+      <selection pane="bottomLeft" activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -15224,7 +15262,7 @@
         <v>1117</v>
       </c>
       <c r="B49" s="166" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="34">
@@ -15237,42 +15275,42 @@
     </row>
     <row r="51" spans="1:2" s="176" customFormat="1" ht="51">
       <c r="A51" s="1" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="B51" s="177" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="52" spans="1:2" s="165" customFormat="1" ht="187">
       <c r="A52" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B52" s="166" t="s">
         <v>1194</v>
-      </c>
-      <c r="B52" s="166" t="s">
-        <v>1195</v>
       </c>
     </row>
     <row r="53" spans="1:2" s="165" customFormat="1" ht="238">
       <c r="A53" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B53" s="166" t="s">
         <v>1196</v>
-      </c>
-      <c r="B53" s="166" t="s">
-        <v>1197</v>
       </c>
     </row>
     <row r="54" spans="1:2" s="165" customFormat="1" ht="34">
       <c r="A54" s="1" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B54" s="166" t="s">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="68">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="204">
       <c r="A55" s="1" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B55" s="166" t="s">
-        <v>1231</v>
+        <v>1258</v>
       </c>
     </row>
   </sheetData>
@@ -15287,8 +15325,8 @@
   </sheetPr>
   <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
@@ -15731,7 +15769,7 @@
         <v>1077</v>
       </c>
       <c r="B52" s="159" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="53" spans="1:2" s="156" customFormat="1" ht="204">
@@ -15739,23 +15777,23 @@
         <v>1084</v>
       </c>
       <c r="B53" s="157" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="54" spans="1:2" s="156" customFormat="1" ht="306">
       <c r="A54" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B54" s="157" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="55" spans="1:2" s="156" customFormat="1" ht="85">
       <c r="A55" s="6" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B55" s="157" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="56" spans="1:2" s="158" customFormat="1" ht="17">
@@ -15763,7 +15801,7 @@
         <v>1127</v>
       </c>
       <c r="B56" s="159" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="57" spans="1:2" s="158" customFormat="1" ht="102">
@@ -15771,23 +15809,23 @@
         <v>1127</v>
       </c>
       <c r="B57" s="159" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="85">
       <c r="A58" s="6" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B58" s="159" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="17">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="51">
       <c r="A59" s="6" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
       <c r="B59" s="181" t="s">
-        <v>1245</v>
+        <v>1254</v>
       </c>
     </row>
   </sheetData>
@@ -15805,7 +15843,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
+      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -16147,30 +16185,30 @@
       </c>
       <c r="C40" s="132"/>
     </row>
-    <row r="41" spans="1:3" s="174" customFormat="1" ht="170">
+    <row r="41" spans="1:3" s="174" customFormat="1" ht="306">
       <c r="A41" s="6" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>1236</v>
+        <v>1256</v>
       </c>
       <c r="C41" s="175"/>
     </row>
     <row r="42" spans="1:3" s="180" customFormat="1" ht="51">
       <c r="A42" s="6" t="s">
-        <v>1246</v>
+        <v>1240</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>1247</v>
+        <v>1255</v>
       </c>
       <c r="C42" s="181"/>
     </row>
     <row r="43" spans="1:3" ht="41" customHeight="1">
       <c r="A43" s="6" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B43" s="46" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="C43" s="90" t="s">
         <v>227</v>
@@ -16178,10 +16216,10 @@
     </row>
     <row r="44" spans="1:3" ht="17">
       <c r="A44" s="6" t="s">
-        <v>1248</v>
-      </c>
-      <c r="B44" s="191" t="s">
-        <v>1249</v>
+        <v>1241</v>
+      </c>
+      <c r="B44" s="183" t="s">
+        <v>1242</v>
       </c>
     </row>
   </sheetData>
@@ -16201,7 +16239,7 @@
   <sheetViews>
     <sheetView zoomScale="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B126" sqref="B126"/>
+      <selection pane="bottomLeft" activeCell="B125" sqref="B125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -17212,18 +17250,18 @@
     </row>
     <row r="119" spans="1:2" s="160" customFormat="1" ht="136">
       <c r="A119" s="6" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B119" s="161" t="s">
         <v>1182</v>
-      </c>
-      <c r="B119" s="161" t="s">
-        <v>1183</v>
       </c>
     </row>
     <row r="120" spans="1:2" s="162" customFormat="1" ht="68">
       <c r="A120" s="6" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B120" s="163" t="s">
         <v>1186</v>
-      </c>
-      <c r="B120" s="163" t="s">
-        <v>1187</v>
       </c>
     </row>
     <row r="121" spans="1:2" s="160" customFormat="1" ht="102">
@@ -17231,7 +17269,7 @@
         <v>1106</v>
       </c>
       <c r="B121" s="161" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="122" spans="1:2" s="160" customFormat="1" ht="187">
@@ -17239,31 +17277,31 @@
         <v>1121</v>
       </c>
       <c r="B122" s="161" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="68">
       <c r="A123" s="6" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B123" s="161" t="s">
         <v>1180</v>
-      </c>
-      <c r="B123" s="161" t="s">
-        <v>1181</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="34">
       <c r="A124" s="6" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="B124" s="167" t="s">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" ht="34">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="68">
       <c r="A125" s="6" t="s">
-        <v>1250</v>
+        <v>1243</v>
       </c>
       <c r="B125" s="181" t="s">
-        <v>1251</v>
+        <v>1257</v>
       </c>
     </row>
   </sheetData>
@@ -17606,26 +17644,26 @@
     </row>
     <row r="39" spans="1:5" s="165" customFormat="1" ht="187">
       <c r="A39" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B39" s="166" t="s">
         <v>1203</v>
-      </c>
-      <c r="B39" s="166" t="s">
-        <v>1204</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="34">
       <c r="A40" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B40" s="166" t="s">
         <v>1200</v>
-      </c>
-      <c r="B40" s="166" t="s">
-        <v>1201</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="165" customFormat="1" ht="85">
       <c r="A41" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B41" s="166" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="165" customFormat="1">
@@ -17676,10 +17714,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -17964,20 +18002,20 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="408" customHeight="1">
-      <c r="A34" s="183" t="s">
+      <c r="A34" s="185" t="s">
         <v>269</v>
       </c>
-      <c r="B34" s="182" t="s">
+      <c r="B34" s="184" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="206" customHeight="1">
-      <c r="A35" s="183"/>
-      <c r="B35" s="182"/>
+      <c r="A35" s="185"/>
+      <c r="B35" s="184"/>
     </row>
     <row r="36" spans="1:3" s="43" customFormat="1" ht="138" customHeight="1">
-      <c r="A36" s="184"/>
-      <c r="B36" s="182"/>
+      <c r="A36" s="186"/>
+      <c r="B36" s="184"/>
     </row>
     <row r="37" spans="1:3" s="43" customFormat="1" ht="51">
       <c r="A37" s="1" t="s">
@@ -18094,16 +18132,16 @@
       </c>
     </row>
     <row r="50" spans="1:2" s="86" customFormat="1" ht="229" customHeight="1">
-      <c r="A50" s="185" t="s">
+      <c r="A50" s="187" t="s">
         <v>903</v>
       </c>
-      <c r="B50" s="182" t="s">
+      <c r="B50" s="184" t="s">
         <v>904</v>
       </c>
     </row>
     <row r="51" spans="1:2" s="86" customFormat="1" ht="181" customHeight="1">
-      <c r="A51" s="186"/>
-      <c r="B51" s="182"/>
+      <c r="A51" s="188"/>
+      <c r="B51" s="184"/>
     </row>
     <row r="52" spans="1:2" ht="17">
       <c r="A52" s="103" t="s">
@@ -18150,7 +18188,7 @@
         <v>1073</v>
       </c>
       <c r="B57" s="147" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="58" spans="1:2" s="148" customFormat="1" ht="323">
@@ -18158,15 +18196,15 @@
         <v>1069</v>
       </c>
       <c r="B58" s="149" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="255">
       <c r="A59" s="103" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B59" s="147" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="17">
@@ -18174,15 +18212,15 @@
         <v>1078</v>
       </c>
       <c r="B60" s="145" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="61" spans="1:2" s="165" customFormat="1" ht="17">
       <c r="A61" s="103" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B61" s="164" t="s">
         <v>1206</v>
-      </c>
-      <c r="B61" s="164" t="s">
-        <v>1207</v>
       </c>
     </row>
     <row r="62" spans="1:2" s="165" customFormat="1" ht="153">
@@ -18190,23 +18228,31 @@
         <v>1121</v>
       </c>
       <c r="B62" s="164" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="102">
       <c r="A63" s="103" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B63" s="168" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="34">
       <c r="A64" s="103" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
       <c r="B64" s="179" t="s">
-        <v>1253</v>
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="51">
+      <c r="A65" s="103" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B65" s="182" t="s">
+        <v>1260</v>
       </c>
     </row>
   </sheetData>
@@ -18528,10 +18574,10 @@
     </row>
     <row r="34" spans="1:3" s="152" customFormat="1" ht="51">
       <c r="A34" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B34" s="153" t="s">
         <v>1161</v>
-      </c>
-      <c r="B34" s="153" t="s">
-        <v>1162</v>
       </c>
       <c r="C34" s="153"/>
     </row>
@@ -18699,7 +18745,7 @@
         <v>635</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="54" spans="1:3" s="55" customFormat="1" ht="17">
@@ -18787,7 +18833,7 @@
         <v>1008</v>
       </c>
       <c r="B64" s="166" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="221">
@@ -18859,15 +18905,15 @@
         <v>1053</v>
       </c>
       <c r="B73" s="155" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="74" spans="1:2" s="154" customFormat="1" ht="17">
       <c r="A74" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B74" s="155" t="s">
         <v>1164</v>
-      </c>
-      <c r="B74" s="155" t="s">
-        <v>1165</v>
       </c>
     </row>
     <row r="75" spans="1:2" s="129" customFormat="1" ht="68">
@@ -18891,7 +18937,7 @@
         <v>1078</v>
       </c>
       <c r="B77" s="155" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="51">
@@ -18904,18 +18950,18 @@
     </row>
     <row r="79" spans="1:2" s="165" customFormat="1" ht="34">
       <c r="A79" s="1" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B79" s="166" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="153">
       <c r="A80" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B80" s="166" t="s">
         <v>1189</v>
-      </c>
-      <c r="B80" s="166" t="s">
-        <v>1190</v>
       </c>
     </row>
   </sheetData>
@@ -18931,7 +18977,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -19172,7 +19218,7 @@
         <v>1053</v>
       </c>
       <c r="B29" s="151" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="30" spans="1:2" s="150" customFormat="1" ht="372">
@@ -19180,7 +19226,7 @@
         <v>1064</v>
       </c>
       <c r="B30" s="151" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="34">
@@ -19188,7 +19234,7 @@
         <v>1072</v>
       </c>
       <c r="B31" s="151" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="136">
@@ -19196,39 +19242,39 @@
         <v>1079</v>
       </c>
       <c r="B32" s="151" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="68">
       <c r="A33" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B33" s="151" t="s">
         <v>1159</v>
-      </c>
-      <c r="B33" s="151" t="s">
-        <v>1160</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="102">
       <c r="A34" s="1" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B34" s="173" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="82" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="B35" s="172" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="119">
       <c r="A36" s="1" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
       <c r="B36" s="181" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
     </row>
   </sheetData>

--- a/Data Archive/Mitigation implementations timelines.xlsx
+++ b/Data Archive/Mitigation implementations timelines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Documents/GitHub/CovidPolicy-Canada/Data Archive/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3FF6DF1-5852-6A49-A123-B62EB2E4A149}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3FE7032-8BB7-8B49-BED5-DB231BA2F05E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="460" windowWidth="28800" windowHeight="16600" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="940" yWindow="460" windowWidth="28800" windowHeight="16600" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Alberta" sheetId="4" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="1261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="1265">
   <si>
     <t>03/30/2020</t>
   </si>
@@ -11005,9 +11005,6 @@
     <t>06/28/2022</t>
   </si>
   <si>
-    <t>Mandatory masking lifted in public transit. (https://saskatoon.ctvnews.ca/saskatoon-transit-to-end-covid-19-mask-requirement-1.5966782)</t>
-  </si>
-  <si>
     <t>06/18/2022</t>
   </si>
   <si>
@@ -11032,9 +11029,6 @@
   </si>
   <si>
     <t>06/03/2022</t>
-  </si>
-  <si>
-    <t>As of June 3, 2022, masks are still recommended but not longer required in public transit.(https://www.princeedwardisland.ca/en/information/health-and-wellness/wearing-masks-in-the-community-and-workplaces)</t>
   </si>
   <si>
     <t>residents are no longer required to wear masks in public places or limit the size of gatherings. All businesses and organizations can operate at full capacity and without the requirement for physical distancing. (https://www.thestar.com/news/canada/2022/03/14/covid-19-restrictions-end-in-new-brunswick-and-newfoundland-and-labrador.html) masks will still be required in K-12 schools until at least the beginning of Easter break on April 14. A further announcement on masking. (https://www.cbc.ca/news/canada/newfoundland-labrador/nl-covid-restrictions-end-masks-remain-1.6382888) proof of vaccination to enter public venues no longer required (https://atlantic.ctvnews.ca/newfoundland-and-labrador-dropping-masking-vaccination-passport-measures-march-14-1.5784179). Effective March 14, 2022, wearing a non-medical mask that covers the nose and mouth is not mandatory, but strongly recommended for people 5 years or older, with some exceptions. (https://www.gov.nl.ca/covid-19/public-health-guidance/guidance/masks/#:~:text=Requirements,some%20exceptions%20(see%20below).</t>
@@ -11093,6 +11087,27 @@
       </rPr>
       <t>(https://www.thesafetymag.com/ca/topics/occupational-hygiene/nunavut-lifts-mask-mandate-in-health-facilities-workplaces/412176#:~:text=%E2%80%9CWhile%20masks%20are%20no%20longer,said%20Nunavut%20Premier%20P.J.%20Akeeagok.)</t>
     </r>
+  </si>
+  <si>
+    <t>01/30/2023</t>
+  </si>
+  <si>
+    <t>Masks still strongly recommended. (https://www.gov.nl.ca/covid-19/public-health-guidance/guidance/masks/)</t>
+  </si>
+  <si>
+    <t>As of June 3, 2022, masks are still recommended but not longer required in public transit. Masking requirements remain in high-risk settings, including hospitals, long-term care, and community care homes; isolation requirements for positive cases updated.
+(https://www.princeedwardisland.ca/en/information/health-and-wellness/wearing-masks-in-the-community-and-workplaces)</t>
+  </si>
+  <si>
+    <t>Mandatory masking lifted in public transit. (https://saskatoon.ctvnews.ca/saskatoon-transit-to-end-covid-19-mask-requirement-1.5966782). Masks are still recommended. (https://www.saskatchewan.ca/government/health-care-administration-and-provider-resources/treatment-procedures-and-guidelines/emerging-public-health-issues/2019-novel-coronavirus/about-covid-19/how-to-protect-yourself).</t>
+  </si>
+  <si>
+    <t>12/30/2022</t>
+  </si>
+  <si>
+    <t>Wearing masks in public indoor settings is not required by public health. Wearing a mask is a personal choice. 
+Masks are encouraged, but not required, when travelling by air, train, public transit or BC Ferries.
+Individual businesses and event organizers can choose to continue requiring masks on their premises. It’s important that we respect the choices of people, businesses and one another. You must wear a mask in all health care settings, like vaccine clinics and hospitals. No further restrictions on restaurants, bars, night clubs or sport activities. There are no capacity restrictions on visitors at long-term care and seniors' assisted living facilities. You should check with your local facility about their policies before your visit. (https://www2.gov.bc.ca/gov/content/covid-19/info/restrictions#:~:text=Wearing%20masks%20in%20public%20indoor,mask%20is%20a%20personal%20choice.)</t>
   </si>
 </sst>
 </file>
@@ -11321,7 +11336,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="193">
+  <cellXfs count="194">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -11737,6 +11752,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -12079,7 +12097,7 @@
   <sheetViews>
     <sheetView zoomScale="107" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B50" sqref="B50"/>
+      <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -12483,7 +12501,7 @@
         <v>1238</v>
       </c>
       <c r="B49" s="88" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="C49" s="102" t="s">
         <v>617</v>
@@ -12501,7 +12519,7 @@
   </sheetPr>
   <dimension ref="A1:C70"/>
   <sheetViews>
-    <sheetView topLeftCell="D66" zoomScale="107" workbookViewId="0">
+    <sheetView topLeftCell="A79" zoomScale="107" workbookViewId="0">
       <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
@@ -12831,16 +12849,16 @@
       </c>
     </row>
     <row r="40" spans="1:2" s="71" customFormat="1" ht="226" customHeight="1">
-      <c r="A40" s="187" t="s">
+      <c r="A40" s="188" t="s">
         <v>813</v>
       </c>
-      <c r="B40" s="189" t="s">
+      <c r="B40" s="190" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="41" spans="1:2" s="71" customFormat="1" ht="232" customHeight="1">
-      <c r="A41" s="188"/>
-      <c r="B41" s="189"/>
+      <c r="A41" s="189"/>
+      <c r="B41" s="190"/>
     </row>
     <row r="42" spans="1:2" ht="34">
       <c r="A42" s="70" t="s">
@@ -12851,28 +12869,28 @@
       </c>
     </row>
     <row r="43" spans="1:2" s="71" customFormat="1" ht="324" customHeight="1">
-      <c r="A43" s="187" t="s">
+      <c r="A43" s="188" t="s">
         <v>121</v>
       </c>
-      <c r="B43" s="189" t="s">
+      <c r="B43" s="190" t="s">
         <v>819</v>
       </c>
     </row>
     <row r="44" spans="1:2" s="71" customFormat="1" ht="134" customHeight="1">
-      <c r="A44" s="188"/>
-      <c r="B44" s="189"/>
+      <c r="A44" s="189"/>
+      <c r="B44" s="190"/>
     </row>
     <row r="45" spans="1:2" s="71" customFormat="1" ht="186" customHeight="1">
-      <c r="A45" s="185" t="s">
+      <c r="A45" s="186" t="s">
         <v>448</v>
       </c>
-      <c r="B45" s="189" t="s">
+      <c r="B45" s="190" t="s">
         <v>820</v>
       </c>
     </row>
     <row r="46" spans="1:2" s="71" customFormat="1" ht="284" customHeight="1">
-      <c r="A46" s="190"/>
-      <c r="B46" s="189"/>
+      <c r="A46" s="191"/>
+      <c r="B46" s="190"/>
     </row>
     <row r="47" spans="1:2" ht="17">
       <c r="A47" s="70" t="s">
@@ -12899,28 +12917,28 @@
       </c>
     </row>
     <row r="50" spans="1:2" s="71" customFormat="1" ht="212" customHeight="1">
-      <c r="A50" s="187" t="s">
+      <c r="A50" s="188" t="s">
         <v>824</v>
       </c>
-      <c r="B50" s="189" t="s">
+      <c r="B50" s="190" t="s">
         <v>940</v>
       </c>
     </row>
     <row r="51" spans="1:2" s="71" customFormat="1" ht="224" customHeight="1">
-      <c r="A51" s="188"/>
-      <c r="B51" s="189"/>
+      <c r="A51" s="189"/>
+      <c r="B51" s="190"/>
     </row>
     <row r="52" spans="1:2" s="71" customFormat="1" ht="232" customHeight="1">
-      <c r="A52" s="187" t="s">
+      <c r="A52" s="188" t="s">
         <v>825</v>
       </c>
-      <c r="B52" s="189" t="s">
+      <c r="B52" s="190" t="s">
         <v>939</v>
       </c>
     </row>
     <row r="53" spans="1:2" s="71" customFormat="1" ht="242" customHeight="1">
-      <c r="A53" s="188"/>
-      <c r="B53" s="189"/>
+      <c r="A53" s="189"/>
+      <c r="B53" s="190"/>
     </row>
     <row r="54" spans="1:2" ht="34">
       <c r="A54" s="70" t="s">
@@ -13052,10 +13070,10 @@
     </row>
     <row r="70" spans="1:2" ht="51">
       <c r="A70" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B70" s="181" t="s">
         <v>1248</v>
-      </c>
-      <c r="B70" s="181" t="s">
-        <v>1249</v>
       </c>
     </row>
   </sheetData>
@@ -13082,7 +13100,7 @@
   </sheetPr>
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
@@ -13508,7 +13526,7 @@
         <v>1127</v>
       </c>
       <c r="B48" s="142" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="49" spans="2:2">
@@ -13524,10 +13542,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="117" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView topLeftCell="A37" zoomScale="117" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -13832,7 +13850,7 @@
         <v>1127</v>
       </c>
       <c r="B37" s="166" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="51">
@@ -13841,6 +13859,14 @@
       </c>
       <c r="B38" s="169" t="s">
         <v>1226</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="17">
+      <c r="A39" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B39" s="184" t="s">
+        <v>1260</v>
       </c>
     </row>
   </sheetData>
@@ -13855,8 +13881,8 @@
   </sheetPr>
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -14149,12 +14175,12 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="34">
+    <row r="36" spans="1:2" ht="51">
       <c r="A36" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="B36" s="181" t="s">
-        <v>1251</v>
+        <v>1261</v>
       </c>
     </row>
   </sheetData>
@@ -14298,24 +14324,24 @@
       </c>
     </row>
     <row r="14" spans="1:15" s="64" customFormat="1" ht="81" customHeight="1">
-      <c r="A14" s="191" t="s">
+      <c r="A14" s="192" t="s">
         <v>255</v>
       </c>
-      <c r="B14" s="189" t="s">
+      <c r="B14" s="190" t="s">
         <v>727</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="64" customFormat="1" ht="71" customHeight="1">
-      <c r="A15" s="192"/>
-      <c r="B15" s="189"/>
+      <c r="A15" s="193"/>
+      <c r="B15" s="190"/>
     </row>
     <row r="16" spans="1:15" s="64" customFormat="1" ht="95" customHeight="1">
-      <c r="A16" s="192"/>
-      <c r="B16" s="189"/>
+      <c r="A16" s="193"/>
+      <c r="B16" s="190"/>
     </row>
     <row r="17" spans="1:2" s="64" customFormat="1" ht="192" customHeight="1">
-      <c r="A17" s="192"/>
-      <c r="B17" s="189"/>
+      <c r="A17" s="193"/>
+      <c r="B17" s="190"/>
     </row>
     <row r="18" spans="1:2" s="64" customFormat="1" ht="192" customHeight="1">
       <c r="A18" s="69" t="s">
@@ -14812,7 +14838,7 @@
   </sheetPr>
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView zoomScale="98" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B56" sqref="B56"/>
     </sheetView>
@@ -15310,7 +15336,7 @@
         <v>1192</v>
       </c>
       <c r="B55" s="166" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
     </row>
   </sheetData>
@@ -15326,7 +15352,7 @@
   <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
@@ -15825,7 +15851,7 @@
         <v>1239</v>
       </c>
       <c r="B59" s="181" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
     </row>
   </sheetData>
@@ -15843,7 +15869,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
+      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -16190,7 +16216,7 @@
         <v>1232</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="C41" s="175"/>
     </row>
@@ -16199,7 +16225,7 @@
         <v>1240</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="C42" s="181"/>
     </row>
@@ -16214,12 +16240,12 @@
         <v>227</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="17">
+    <row r="44" spans="1:3" ht="51">
       <c r="A44" s="6" t="s">
         <v>1241</v>
       </c>
       <c r="B44" s="183" t="s">
-        <v>1242</v>
+        <v>1262</v>
       </c>
     </row>
   </sheetData>
@@ -16238,7 +16264,7 @@
   <dimension ref="A1:C125"/>
   <sheetViews>
     <sheetView zoomScale="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B125" sqref="B125"/>
     </sheetView>
   </sheetViews>
@@ -17298,10 +17324,10 @@
     </row>
     <row r="125" spans="1:2" ht="68">
       <c r="A125" s="6" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B125" s="181" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
     </row>
   </sheetData>
@@ -17322,8 +17348,8 @@
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -17666,9 +17692,13 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="165" customFormat="1">
-      <c r="A42" s="1"/>
-      <c r="B42" s="166"/>
+    <row r="42" spans="1:5" s="165" customFormat="1" ht="136">
+      <c r="A42" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B42" s="166" t="s">
+        <v>1264</v>
+      </c>
     </row>
     <row r="43" spans="1:5" s="165" customFormat="1">
       <c r="A43" s="1"/>
@@ -17716,7 +17746,7 @@
   </sheetPr>
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
       <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
@@ -18002,20 +18032,20 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="408" customHeight="1">
-      <c r="A34" s="185" t="s">
+      <c r="A34" s="186" t="s">
         <v>269</v>
       </c>
-      <c r="B34" s="184" t="s">
+      <c r="B34" s="185" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="206" customHeight="1">
-      <c r="A35" s="185"/>
-      <c r="B35" s="184"/>
+      <c r="A35" s="186"/>
+      <c r="B35" s="185"/>
     </row>
     <row r="36" spans="1:3" s="43" customFormat="1" ht="138" customHeight="1">
-      <c r="A36" s="186"/>
-      <c r="B36" s="184"/>
+      <c r="A36" s="187"/>
+      <c r="B36" s="185"/>
     </row>
     <row r="37" spans="1:3" s="43" customFormat="1" ht="51">
       <c r="A37" s="1" t="s">
@@ -18132,16 +18162,16 @@
       </c>
     </row>
     <row r="50" spans="1:2" s="86" customFormat="1" ht="229" customHeight="1">
-      <c r="A50" s="187" t="s">
+      <c r="A50" s="188" t="s">
         <v>903</v>
       </c>
-      <c r="B50" s="184" t="s">
+      <c r="B50" s="185" t="s">
         <v>904</v>
       </c>
     </row>
     <row r="51" spans="1:2" s="86" customFormat="1" ht="181" customHeight="1">
-      <c r="A51" s="188"/>
-      <c r="B51" s="184"/>
+      <c r="A51" s="189"/>
+      <c r="B51" s="185"/>
     </row>
     <row r="52" spans="1:2" ht="17">
       <c r="A52" s="103" t="s">
@@ -18241,18 +18271,18 @@
     </row>
     <row r="64" spans="1:2" ht="34">
       <c r="A64" s="103" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B64" s="179" t="s">
         <v>1244</v>
-      </c>
-      <c r="B64" s="179" t="s">
-        <v>1245</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="51">
       <c r="A65" s="103" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B65" s="182" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
   </sheetData>
@@ -18274,7 +18304,7 @@
   <dimension ref="A1:C80"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
@@ -19271,10 +19301,10 @@
     </row>
     <row r="36" spans="1:2" ht="119">
       <c r="A36" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B36" s="181" t="s">
         <v>1246</v>
-      </c>
-      <c r="B36" s="181" t="s">
-        <v>1247</v>
       </c>
     </row>
   </sheetData>

--- a/Data Archive/Mitigation implementations timelines.xlsx
+++ b/Data Archive/Mitigation implementations timelines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Documents/GitHub/CovidPolicy-Canada/Data Archive/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3FE7032-8BB7-8B49-BED5-DB231BA2F05E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F105776-067C-A94B-8BEE-E02F92B769C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="460" windowWidth="28800" windowHeight="16600" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16600" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Alberta" sheetId="4" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="1265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="1267">
   <si>
     <t>03/30/2020</t>
   </si>
@@ -11108,6 +11108,12 @@
     <t>Wearing masks in public indoor settings is not required by public health. Wearing a mask is a personal choice. 
 Masks are encouraged, but not required, when travelling by air, train, public transit or BC Ferries.
 Individual businesses and event organizers can choose to continue requiring masks on their premises. It’s important that we respect the choices of people, businesses and one another. You must wear a mask in all health care settings, like vaccine clinics and hospitals. No further restrictions on restaurants, bars, night clubs or sport activities. There are no capacity restrictions on visitors at long-term care and seniors' assisted living facilities. You should check with your local facility about their policies before your visit. (https://www2.gov.bc.ca/gov/content/covid-19/info/restrictions#:~:text=Wearing%20masks%20in%20public%20indoor,mask%20is%20a%20personal%20choice.)</t>
+  </si>
+  <si>
+    <t>12/29/2021</t>
+  </si>
+  <si>
+    <t>Extended Christmas break for B.C. until Jan 10, 2022. (https://cfjctoday.com/2021/12/29/extended-christmas-break-for-b-c-students-due-to-rapid-spread-of-omicron-variant/)</t>
   </si>
 </sst>
 </file>
@@ -11336,7 +11342,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="194">
+  <cellXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -11754,6 +11760,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -12096,7 +12106,7 @@
   <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView zoomScale="107" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
@@ -12849,16 +12859,16 @@
       </c>
     </row>
     <row r="40" spans="1:2" s="71" customFormat="1" ht="226" customHeight="1">
-      <c r="A40" s="188" t="s">
+      <c r="A40" s="190" t="s">
         <v>813</v>
       </c>
-      <c r="B40" s="190" t="s">
+      <c r="B40" s="192" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="41" spans="1:2" s="71" customFormat="1" ht="232" customHeight="1">
-      <c r="A41" s="189"/>
-      <c r="B41" s="190"/>
+      <c r="A41" s="191"/>
+      <c r="B41" s="192"/>
     </row>
     <row r="42" spans="1:2" ht="34">
       <c r="A42" s="70" t="s">
@@ -12869,28 +12879,28 @@
       </c>
     </row>
     <row r="43" spans="1:2" s="71" customFormat="1" ht="324" customHeight="1">
-      <c r="A43" s="188" t="s">
+      <c r="A43" s="190" t="s">
         <v>121</v>
       </c>
-      <c r="B43" s="190" t="s">
+      <c r="B43" s="192" t="s">
         <v>819</v>
       </c>
     </row>
     <row r="44" spans="1:2" s="71" customFormat="1" ht="134" customHeight="1">
-      <c r="A44" s="189"/>
-      <c r="B44" s="190"/>
+      <c r="A44" s="191"/>
+      <c r="B44" s="192"/>
     </row>
     <row r="45" spans="1:2" s="71" customFormat="1" ht="186" customHeight="1">
-      <c r="A45" s="186" t="s">
+      <c r="A45" s="188" t="s">
         <v>448</v>
       </c>
-      <c r="B45" s="190" t="s">
+      <c r="B45" s="192" t="s">
         <v>820</v>
       </c>
     </row>
     <row r="46" spans="1:2" s="71" customFormat="1" ht="284" customHeight="1">
-      <c r="A46" s="191"/>
-      <c r="B46" s="190"/>
+      <c r="A46" s="193"/>
+      <c r="B46" s="192"/>
     </row>
     <row r="47" spans="1:2" ht="17">
       <c r="A47" s="70" t="s">
@@ -12917,28 +12927,28 @@
       </c>
     </row>
     <row r="50" spans="1:2" s="71" customFormat="1" ht="212" customHeight="1">
-      <c r="A50" s="188" t="s">
+      <c r="A50" s="190" t="s">
         <v>824</v>
       </c>
-      <c r="B50" s="190" t="s">
+      <c r="B50" s="192" t="s">
         <v>940</v>
       </c>
     </row>
     <row r="51" spans="1:2" s="71" customFormat="1" ht="224" customHeight="1">
-      <c r="A51" s="189"/>
-      <c r="B51" s="190"/>
+      <c r="A51" s="191"/>
+      <c r="B51" s="192"/>
     </row>
     <row r="52" spans="1:2" s="71" customFormat="1" ht="232" customHeight="1">
-      <c r="A52" s="188" t="s">
+      <c r="A52" s="190" t="s">
         <v>825</v>
       </c>
-      <c r="B52" s="190" t="s">
+      <c r="B52" s="192" t="s">
         <v>939</v>
       </c>
     </row>
     <row r="53" spans="1:2" s="71" customFormat="1" ht="242" customHeight="1">
-      <c r="A53" s="189"/>
-      <c r="B53" s="190"/>
+      <c r="A53" s="191"/>
+      <c r="B53" s="192"/>
     </row>
     <row r="54" spans="1:2" ht="34">
       <c r="A54" s="70" t="s">
@@ -14324,24 +14334,24 @@
       </c>
     </row>
     <row r="14" spans="1:15" s="64" customFormat="1" ht="81" customHeight="1">
-      <c r="A14" s="192" t="s">
+      <c r="A14" s="194" t="s">
         <v>255</v>
       </c>
-      <c r="B14" s="190" t="s">
+      <c r="B14" s="192" t="s">
         <v>727</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="64" customFormat="1" ht="71" customHeight="1">
-      <c r="A15" s="193"/>
-      <c r="B15" s="190"/>
+      <c r="A15" s="195"/>
+      <c r="B15" s="192"/>
     </row>
     <row r="16" spans="1:15" s="64" customFormat="1" ht="95" customHeight="1">
-      <c r="A16" s="193"/>
-      <c r="B16" s="190"/>
+      <c r="A16" s="195"/>
+      <c r="B16" s="192"/>
     </row>
     <row r="17" spans="1:2" s="64" customFormat="1" ht="192" customHeight="1">
-      <c r="A17" s="193"/>
-      <c r="B17" s="190"/>
+      <c r="A17" s="195"/>
+      <c r="B17" s="192"/>
     </row>
     <row r="18" spans="1:2" s="64" customFormat="1" ht="192" customHeight="1">
       <c r="A18" s="69" t="s">
@@ -14838,8 +14848,8 @@
   </sheetPr>
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
@@ -15089,7 +15099,7 @@
       </c>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3" ht="255">
+    <row r="27" spans="1:3" ht="272">
       <c r="A27" s="6" t="s">
         <v>164</v>
       </c>
@@ -15938,7 +15948,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="136">
+    <row r="8" spans="1:3" ht="153">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -17209,7 +17219,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="111" spans="1:3" s="120" customFormat="1" ht="136">
+    <row r="111" spans="1:3" s="120" customFormat="1" ht="153">
       <c r="A111" s="6" t="s">
         <v>1051</v>
       </c>
@@ -17345,11 +17355,11 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -17660,49 +17670,54 @@
       </c>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:5" ht="51">
+    <row r="38" spans="1:5" s="185" customFormat="1" ht="34">
       <c r="A38" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B38" s="186" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E38" s="186"/>
+    </row>
+    <row r="39" spans="1:5" ht="51">
+      <c r="A39" s="1" t="s">
         <v>1075</v>
       </c>
-      <c r="B38" s="125" t="s">
+      <c r="B39" s="125" t="s">
         <v>1076</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="165" customFormat="1" ht="187">
-      <c r="A39" s="1" t="s">
+    <row r="40" spans="1:5" s="165" customFormat="1" ht="187">
+      <c r="A40" s="1" t="s">
         <v>1202</v>
       </c>
-      <c r="B39" s="166" t="s">
+      <c r="B40" s="166" t="s">
         <v>1203</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="34">
-      <c r="A40" s="1" t="s">
+    <row r="41" spans="1:5" ht="34">
+      <c r="A41" s="1" t="s">
         <v>1199</v>
       </c>
-      <c r="B40" s="166" t="s">
+      <c r="B41" s="166" t="s">
         <v>1200</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="165" customFormat="1" ht="85">
-      <c r="A41" s="1" t="s">
+    <row r="42" spans="1:5" s="165" customFormat="1" ht="85">
+      <c r="A42" s="1" t="s">
         <v>1201</v>
       </c>
-      <c r="B41" s="166" t="s">
+      <c r="B42" s="166" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="165" customFormat="1" ht="136">
-      <c r="A42" s="1" t="s">
+    <row r="43" spans="1:5" s="165" customFormat="1" ht="136">
+      <c r="A43" s="1" t="s">
         <v>1263</v>
       </c>
-      <c r="B42" s="166" t="s">
+      <c r="B43" s="166" t="s">
         <v>1264</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" s="165" customFormat="1">
-      <c r="A43" s="1"/>
-      <c r="B43" s="166"/>
     </row>
     <row r="44" spans="1:5" s="165" customFormat="1">
       <c r="A44" s="1"/>
@@ -17724,13 +17739,17 @@
       <c r="A48" s="1"/>
       <c r="B48" s="166"/>
     </row>
-    <row r="49" spans="5:5">
-      <c r="E49" t="s">
+    <row r="49" spans="1:5" s="165" customFormat="1">
+      <c r="A49" s="1"/>
+      <c r="B49" s="166"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="E50" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="50" spans="5:5" ht="153">
-      <c r="E50" s="119" t="s">
+    <row r="51" spans="1:5" ht="153">
+      <c r="E51" s="119" t="s">
         <v>514</v>
       </c>
     </row>
@@ -17746,7 +17765,7 @@
   </sheetPr>
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+    <sheetView topLeftCell="A63" workbookViewId="0">
       <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
@@ -18032,20 +18051,20 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="408" customHeight="1">
-      <c r="A34" s="186" t="s">
+      <c r="A34" s="188" t="s">
         <v>269</v>
       </c>
-      <c r="B34" s="185" t="s">
+      <c r="B34" s="187" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="206" customHeight="1">
-      <c r="A35" s="186"/>
-      <c r="B35" s="185"/>
+      <c r="A35" s="188"/>
+      <c r="B35" s="187"/>
     </row>
     <row r="36" spans="1:3" s="43" customFormat="1" ht="138" customHeight="1">
-      <c r="A36" s="187"/>
-      <c r="B36" s="185"/>
+      <c r="A36" s="189"/>
+      <c r="B36" s="187"/>
     </row>
     <row r="37" spans="1:3" s="43" customFormat="1" ht="51">
       <c r="A37" s="1" t="s">
@@ -18162,16 +18181,16 @@
       </c>
     </row>
     <row r="50" spans="1:2" s="86" customFormat="1" ht="229" customHeight="1">
-      <c r="A50" s="188" t="s">
+      <c r="A50" s="190" t="s">
         <v>903</v>
       </c>
-      <c r="B50" s="185" t="s">
+      <c r="B50" s="187" t="s">
         <v>904</v>
       </c>
     </row>
     <row r="51" spans="1:2" s="86" customFormat="1" ht="181" customHeight="1">
-      <c r="A51" s="189"/>
-      <c r="B51" s="185"/>
+      <c r="A51" s="191"/>
+      <c r="B51" s="187"/>
     </row>
     <row r="52" spans="1:2" ht="17">
       <c r="A52" s="103" t="s">
@@ -18303,9 +18322,9 @@
   </sheetPr>
   <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B80" sqref="B80"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>

--- a/Data Archive/Mitigation implementations timelines.xlsx
+++ b/Data Archive/Mitigation implementations timelines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Documents/GitHub/CovidPolicy-Canada/Data Archive/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F105776-067C-A94B-8BEE-E02F92B769C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E870BDF-8311-134C-BD35-381B789262A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16600" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Alberta" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Ontario!$A$1:$C$40</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="1267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1676" uniqueCount="1268">
   <si>
     <t>03/30/2020</t>
   </si>
@@ -11017,10 +11017,6 @@
     <t>07/14/2022</t>
   </si>
   <si>
-    <t>Vaccination no longer required for workers, volunteers and contractors working in high-risk settings. Some settings may require you to wear a mask such as in long-term care homes, health facilities, shelters, group homes, the correctional centre and hospitals. (https://yukon.ca/en/news/update-covid-19-yukon). As of july 14. 2022, residents are still required to wear a mask in places such as:
-schools; long-term care homes; health facilities; shelters; group homes; the correctional centre; and hospitals.(xhttps://yukon.ca/en/health-and-wellness/covid-19-information/your-health-covid-19/wearing-non-medical-mask-yukon)</t>
-  </si>
-  <si>
     <t>07/06/2022</t>
   </si>
   <si>
@@ -11114,6 +11110,13 @@
   </si>
   <si>
     <t>Extended Christmas break for B.C. until Jan 10, 2022. (https://cfjctoday.com/2021/12/29/extended-christmas-break-for-b-c-students-due-to-rapid-spread-of-omicron-variant/)</t>
+  </si>
+  <si>
+    <t>Vaccination no longer required for workers, volunteers and contractors working in high-risk settings. Some settings may require you to wear a mask such as in long-term care homes, health facilities, shelters, group homes, the correctional centre and hospitals. (https://yukon.ca/en/news/update-covid-19-yukon). As of july 14. 2022, residents are still required to wear a mask in places such as:
+long-term care homes; health facilities; shelters; group homes; the correctional centre; and hospitals.(xhttps://yukon.ca/en/health-and-wellness/covid-19-information/your-health-covid-19/wearing-non-medical-mask-yukon)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mask use in all areas of schools and on school buses has become optional for students and staff, as of May 24. (https://www.yukon-news.com/local-news/yukon-drops-mandatory-masks-in-schools/)</t>
   </si>
 </sst>
 </file>
@@ -11342,7 +11345,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="196">
+  <cellXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -11764,6 +11767,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -12511,7 +12515,7 @@
         <v>1238</v>
       </c>
       <c r="B49" s="88" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C49" s="102" t="s">
         <v>617</v>
@@ -12859,16 +12863,16 @@
       </c>
     </row>
     <row r="40" spans="1:2" s="71" customFormat="1" ht="226" customHeight="1">
-      <c r="A40" s="190" t="s">
+      <c r="A40" s="191" t="s">
         <v>813</v>
       </c>
-      <c r="B40" s="192" t="s">
+      <c r="B40" s="193" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="41" spans="1:2" s="71" customFormat="1" ht="232" customHeight="1">
-      <c r="A41" s="191"/>
-      <c r="B41" s="192"/>
+      <c r="A41" s="192"/>
+      <c r="B41" s="193"/>
     </row>
     <row r="42" spans="1:2" ht="34">
       <c r="A42" s="70" t="s">
@@ -12879,28 +12883,28 @@
       </c>
     </row>
     <row r="43" spans="1:2" s="71" customFormat="1" ht="324" customHeight="1">
-      <c r="A43" s="190" t="s">
+      <c r="A43" s="191" t="s">
         <v>121</v>
       </c>
-      <c r="B43" s="192" t="s">
+      <c r="B43" s="193" t="s">
         <v>819</v>
       </c>
     </row>
     <row r="44" spans="1:2" s="71" customFormat="1" ht="134" customHeight="1">
-      <c r="A44" s="191"/>
-      <c r="B44" s="192"/>
+      <c r="A44" s="192"/>
+      <c r="B44" s="193"/>
     </row>
     <row r="45" spans="1:2" s="71" customFormat="1" ht="186" customHeight="1">
-      <c r="A45" s="188" t="s">
+      <c r="A45" s="189" t="s">
         <v>448</v>
       </c>
-      <c r="B45" s="192" t="s">
+      <c r="B45" s="193" t="s">
         <v>820</v>
       </c>
     </row>
     <row r="46" spans="1:2" s="71" customFormat="1" ht="284" customHeight="1">
-      <c r="A46" s="193"/>
-      <c r="B46" s="192"/>
+      <c r="A46" s="194"/>
+      <c r="B46" s="193"/>
     </row>
     <row r="47" spans="1:2" ht="17">
       <c r="A47" s="70" t="s">
@@ -12927,28 +12931,28 @@
       </c>
     </row>
     <row r="50" spans="1:2" s="71" customFormat="1" ht="212" customHeight="1">
-      <c r="A50" s="190" t="s">
+      <c r="A50" s="191" t="s">
         <v>824</v>
       </c>
-      <c r="B50" s="192" t="s">
+      <c r="B50" s="193" t="s">
         <v>940</v>
       </c>
     </row>
     <row r="51" spans="1:2" s="71" customFormat="1" ht="224" customHeight="1">
-      <c r="A51" s="191"/>
-      <c r="B51" s="192"/>
+      <c r="A51" s="192"/>
+      <c r="B51" s="193"/>
     </row>
     <row r="52" spans="1:2" s="71" customFormat="1" ht="232" customHeight="1">
-      <c r="A52" s="190" t="s">
+      <c r="A52" s="191" t="s">
         <v>825</v>
       </c>
-      <c r="B52" s="192" t="s">
+      <c r="B52" s="193" t="s">
         <v>939</v>
       </c>
     </row>
     <row r="53" spans="1:2" s="71" customFormat="1" ht="242" customHeight="1">
-      <c r="A53" s="191"/>
-      <c r="B53" s="192"/>
+      <c r="A53" s="192"/>
+      <c r="B53" s="193"/>
     </row>
     <row r="54" spans="1:2" ht="34">
       <c r="A54" s="70" t="s">
@@ -13080,10 +13084,10 @@
     </row>
     <row r="70" spans="1:2" ht="51">
       <c r="A70" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B70" s="181" t="s">
         <v>1247</v>
-      </c>
-      <c r="B70" s="181" t="s">
-        <v>1248</v>
       </c>
     </row>
   </sheetData>
@@ -13536,7 +13540,7 @@
         <v>1127</v>
       </c>
       <c r="B48" s="142" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="49" spans="2:2">
@@ -13847,7 +13851,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="102">
+    <row r="36" spans="1:2" ht="85">
       <c r="A36" t="s">
         <v>1121</v>
       </c>
@@ -13860,7 +13864,7 @@
         <v>1127</v>
       </c>
       <c r="B37" s="166" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="51">
@@ -13873,10 +13877,10 @@
     </row>
     <row r="39" spans="1:2" ht="17">
       <c r="A39" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B39" s="184" t="s">
         <v>1259</v>
-      </c>
-      <c r="B39" s="184" t="s">
-        <v>1260</v>
       </c>
     </row>
   </sheetData>
@@ -13891,7 +13895,7 @@
   </sheetPr>
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A32" workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
@@ -14129,7 +14133,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="29" spans="1:2" s="143" customFormat="1" ht="255">
+    <row r="29" spans="1:2" s="143" customFormat="1" ht="238">
       <c r="A29" s="1" t="s">
         <v>1084</v>
       </c>
@@ -14187,10 +14191,10 @@
     </row>
     <row r="36" spans="1:2" ht="51">
       <c r="A36" s="1" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="B36" s="181" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
   </sheetData>
@@ -14334,24 +14338,24 @@
       </c>
     </row>
     <row r="14" spans="1:15" s="64" customFormat="1" ht="81" customHeight="1">
-      <c r="A14" s="194" t="s">
+      <c r="A14" s="195" t="s">
         <v>255</v>
       </c>
-      <c r="B14" s="192" t="s">
+      <c r="B14" s="193" t="s">
         <v>727</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="64" customFormat="1" ht="71" customHeight="1">
-      <c r="A15" s="195"/>
-      <c r="B15" s="192"/>
+      <c r="A15" s="196"/>
+      <c r="B15" s="193"/>
     </row>
     <row r="16" spans="1:15" s="64" customFormat="1" ht="95" customHeight="1">
-      <c r="A16" s="195"/>
-      <c r="B16" s="192"/>
+      <c r="A16" s="196"/>
+      <c r="B16" s="193"/>
     </row>
     <row r="17" spans="1:2" s="64" customFormat="1" ht="192" customHeight="1">
-      <c r="A17" s="195"/>
-      <c r="B17" s="192"/>
+      <c r="A17" s="196"/>
+      <c r="B17" s="193"/>
     </row>
     <row r="18" spans="1:2" s="64" customFormat="1" ht="192" customHeight="1">
       <c r="A18" s="69" t="s">
@@ -15099,7 +15103,7 @@
       </c>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3" ht="272">
+    <row r="27" spans="1:3" ht="255">
       <c r="A27" s="6" t="s">
         <v>164</v>
       </c>
@@ -15346,7 +15350,7 @@
         <v>1192</v>
       </c>
       <c r="B55" s="166" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
   </sheetData>
@@ -15861,7 +15865,7 @@
         <v>1239</v>
       </c>
       <c r="B59" s="181" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
   </sheetData>
@@ -15878,7 +15882,7 @@
   <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
@@ -15948,7 +15952,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="153">
+    <row r="8" spans="1:3" ht="136">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -16226,7 +16230,7 @@
         <v>1232</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C41" s="175"/>
     </row>
@@ -16235,7 +16239,7 @@
         <v>1240</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="C42" s="181"/>
     </row>
@@ -16255,7 +16259,7 @@
         <v>1241</v>
       </c>
       <c r="B44" s="183" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
   </sheetData>
@@ -17219,7 +17223,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="111" spans="1:3" s="120" customFormat="1" ht="153">
+    <row r="111" spans="1:3" s="120" customFormat="1" ht="136">
       <c r="A111" s="6" t="s">
         <v>1051</v>
       </c>
@@ -17337,7 +17341,7 @@
         <v>1242</v>
       </c>
       <c r="B125" s="181" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
   </sheetData>
@@ -17358,7 +17362,7 @@
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
@@ -17672,10 +17676,10 @@
     </row>
     <row r="38" spans="1:5" s="185" customFormat="1" ht="34">
       <c r="A38" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B38" s="186" t="s">
         <v>1265</v>
-      </c>
-      <c r="B38" s="186" t="s">
-        <v>1266</v>
       </c>
       <c r="E38" s="186"/>
     </row>
@@ -17713,10 +17717,10 @@
     </row>
     <row r="43" spans="1:5" s="165" customFormat="1" ht="136">
       <c r="A43" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B43" s="166" t="s">
         <v>1263</v>
-      </c>
-      <c r="B43" s="166" t="s">
-        <v>1264</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="165" customFormat="1">
@@ -18051,20 +18055,20 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="408" customHeight="1">
-      <c r="A34" s="188" t="s">
+      <c r="A34" s="189" t="s">
         <v>269</v>
       </c>
-      <c r="B34" s="187" t="s">
+      <c r="B34" s="188" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="206" customHeight="1">
-      <c r="A35" s="188"/>
-      <c r="B35" s="187"/>
+      <c r="A35" s="189"/>
+      <c r="B35" s="188"/>
     </row>
     <row r="36" spans="1:3" s="43" customFormat="1" ht="138" customHeight="1">
-      <c r="A36" s="189"/>
-      <c r="B36" s="187"/>
+      <c r="A36" s="190"/>
+      <c r="B36" s="188"/>
     </row>
     <row r="37" spans="1:3" s="43" customFormat="1" ht="51">
       <c r="A37" s="1" t="s">
@@ -18181,16 +18185,16 @@
       </c>
     </row>
     <row r="50" spans="1:2" s="86" customFormat="1" ht="229" customHeight="1">
-      <c r="A50" s="190" t="s">
+      <c r="A50" s="191" t="s">
         <v>903</v>
       </c>
-      <c r="B50" s="187" t="s">
+      <c r="B50" s="188" t="s">
         <v>904</v>
       </c>
     </row>
     <row r="51" spans="1:2" s="86" customFormat="1" ht="181" customHeight="1">
-      <c r="A51" s="191"/>
-      <c r="B51" s="187"/>
+      <c r="A51" s="192"/>
+      <c r="B51" s="188"/>
     </row>
     <row r="52" spans="1:2" ht="17">
       <c r="A52" s="103" t="s">
@@ -18298,10 +18302,10 @@
     </row>
     <row r="65" spans="1:2" ht="51">
       <c r="A65" s="103" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="B65" s="182" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
   </sheetData>
@@ -18322,8 +18326,8 @@
   </sheetPr>
   <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
@@ -19023,10 +19027,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="105" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -19318,12 +19322,20 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="119">
+    <row r="36" spans="1:2" s="187" customFormat="1" ht="39" customHeight="1">
       <c r="A36" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B36" s="172" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="119">
+      <c r="A37" s="1" t="s">
         <v>1245</v>
       </c>
-      <c r="B36" s="181" t="s">
-        <v>1246</v>
+      <c r="B37" s="181" t="s">
+        <v>1266</v>
       </c>
     </row>
   </sheetData>
